--- a/SearchTestsData.xlsx
+++ b/SearchTestsData.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="HotelsSearch" sheetId="1" r:id="rId1"/>
-    <sheet name="ToursSearch" sheetId="2" r:id="rId2"/>
-    <sheet name="FlightsSearch" sheetId="3" r:id="rId3"/>
-    <sheet name="VisaSearch" sheetId="4" r:id="rId4"/>
-    <sheet name="CarsSearch" sheetId="5" r:id="rId5"/>
+    <sheet name="ToursSearch" sheetId="2" r:id="rId1"/>
+    <sheet name="FlightsSearch" sheetId="3" r:id="rId2"/>
+    <sheet name="VisaSearch" sheetId="4" r:id="rId3"/>
+    <sheet name="CarsSearch" sheetId="5" r:id="rId4"/>
+    <sheet name="HotelsSearch" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
@@ -35,21 +35,9 @@
     <t>Check In Date</t>
   </si>
   <si>
-    <t>30/August/2018</t>
-  </si>
-  <si>
-    <t>22/September/2018</t>
-  </si>
-  <si>
     <t>Check Out Date</t>
   </si>
   <si>
-    <t>16/October/2018</t>
-  </si>
-  <si>
-    <t>2/February/2020</t>
-  </si>
-  <si>
     <t>London</t>
   </si>
   <si>
@@ -68,12 +56,6 @@
     <t>Dubai</t>
   </si>
   <si>
-    <t>21/November/2018</t>
-  </si>
-  <si>
-    <t>6/July/2019</t>
-  </si>
-  <si>
     <t>Departure location</t>
   </si>
   <si>
@@ -110,9 +92,6 @@
     <t>Vienna</t>
   </si>
   <si>
-    <t>30/September/2018</t>
-  </si>
-  <si>
     <t>Adventure</t>
   </si>
   <si>
@@ -158,22 +137,43 @@
     <t>Alexandria</t>
   </si>
   <si>
-    <t>22/August/2018</t>
-  </si>
-  <si>
-    <t>26/August/2018</t>
-  </si>
-  <si>
     <t>Petra</t>
   </si>
   <si>
     <t>Pusa</t>
   </si>
   <si>
-    <t>5/February/2019</t>
-  </si>
-  <si>
-    <t>7/February/2019</t>
+    <t>12/12/2018</t>
+  </si>
+  <si>
+    <t>15/02/2019</t>
+  </si>
+  <si>
+    <t>01/01/2019</t>
+  </si>
+  <si>
+    <t>02/02/2019</t>
+  </si>
+  <si>
+    <t>22/08/2019</t>
+  </si>
+  <si>
+    <t>5/02/2019</t>
+  </si>
+  <si>
+    <t>26/08/2019</t>
+  </si>
+  <si>
+    <t>7/02/2019</t>
+  </si>
+  <si>
+    <t>29/11/2018</t>
+  </si>
+  <si>
+    <t>21/11/2018</t>
+  </si>
+  <si>
+    <t>6/06/2019</t>
   </si>
 </sst>
 </file>
@@ -210,7 +210,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -219,6 +219,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -520,85 +521,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16.140625" customWidth="1"/>
-    <col min="2" max="2" width="22" customWidth="1"/>
-    <col min="3" max="3" width="27" customWidth="1"/>
-    <col min="4" max="4" width="22.28515625" customWidth="1"/>
-    <col min="5" max="5" width="22.140625" customWidth="1"/>
-    <col min="6" max="6" width="17.42578125" customWidth="1"/>
-    <col min="7" max="7" width="18.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3">
-        <v>3</v>
-      </c>
-      <c r="E3">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -611,35 +537,35 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>17</v>
+      <c r="B3" s="4" t="s">
+        <v>51</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -650,12 +576,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -673,48 +599,48 @@
   <sheetData>
     <row r="1" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" t="s">
         <v>18</v>
-      </c>
-      <c r="D1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" t="s">
-        <v>30</v>
+        <v>23</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>49</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -731,7 +657,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -747,26 +673,26 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B1" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -774,12 +700,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -794,35 +720,35 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" t="s">
         <v>36</v>
-      </c>
-      <c r="B1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="D2" s="4" t="s">
         <v>47</v>
       </c>
       <c r="E2" s="3">
@@ -834,22 +760,95 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>48</v>
-      </c>
-      <c r="B3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D3" t="s">
-        <v>51</v>
       </c>
       <c r="E3" s="3">
         <v>0.4375</v>
       </c>
       <c r="F3" s="3">
         <v>0.64583333333333337</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.7109375" customWidth="1"/>
+    <col min="2" max="3" width="16.85546875" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" customWidth="1"/>
+    <col min="5" max="5" width="20.140625" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
